--- a/data/trans_orig/P15E_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6129FC-1C11-43DF-8F85-EB446C660F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD847477-5D6F-43AE-B955-A5B875824A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0FEF26D-836D-43E2-862B-DE224C1B4127}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18A0EDF4-DDC2-47F9-96C7-5222C7155DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="218">
   <si>
     <t>Población mayor de 65 años con alguna caída en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -368,130 +368,136 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,29%</t>
+    <t>2,53%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,71%</t>
+    <t>97,47%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>3,06%</t>
+    <t>2,93%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>0,61%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>96,94%</t>
+    <t>97,07%</t>
   </si>
   <si>
     <t>98,63%</t>
   </si>
   <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>0,83%</t>
@@ -500,13 +506,19 @@
     <t>0,76%</t>
   </si>
   <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -515,145 +527,169 @@
     <t>99,24%</t>
   </si>
   <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>2,32%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
   </si>
   <si>
     <t>98,98%</t>
@@ -1068,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC0F718-6242-4B38-AAB5-B7AA9713CD84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9286FED2-5311-44EA-AA32-E54C276E2EDA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2510,7 +2546,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -2561,7 +2597,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2599,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9BE952-BE63-46E2-83D1-6E2CE69CF7E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E75352-AAFD-4E81-B390-C657F0E826FE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4112,7 +4148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6DAAD9-CA57-4158-8623-66607C982868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C97BE3-C3AA-475D-B347-9690712A8B67}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5643,7 +5679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEEB9F7-01A7-4817-9DB0-A9A021A54933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12DA400-A6BE-4DE3-A9A2-0395A2342757}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5770,7 +5806,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>109</v>
@@ -5824,7 +5860,7 @@
         <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="H5" s="7">
         <v>517</v>
@@ -5925,10 +5961,10 @@
         <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5940,10 +5976,10 @@
         <v>113</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -5952,13 +5988,13 @@
         <v>15739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,10 +6012,10 @@
         <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
@@ -5991,10 +6027,10 @@
         <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>1077</v>
@@ -6003,13 +6039,13 @@
         <v>1058125</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6113,13 @@
         <v>5458</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -6092,13 +6128,13 @@
         <v>5100</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -6107,13 +6143,13 @@
         <v>10558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6164,13 @@
         <v>316782</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>526</v>
@@ -6143,13 +6179,13 @@
         <v>368184</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="M11" s="7">
         <v>877</v>
@@ -6158,10 +6194,10 @@
         <v>684966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>48</v>
@@ -6232,13 +6268,13 @@
         <v>2180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -6247,13 +6283,13 @@
         <v>3542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -6262,13 +6298,13 @@
         <v>5722</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6319,13 @@
         <v>320060</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
@@ -6298,13 +6334,13 @@
         <v>425014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
@@ -6313,13 +6349,13 @@
         <v>745074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6423,13 @@
         <v>1663</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6408,7 +6444,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -6417,13 +6453,13 @@
         <v>2318</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,10 +6474,10 @@
         <v>195085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>87</v>
@@ -6456,7 +6492,7 @@
         <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -6468,10 +6504,10 @@
         <v>453942</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>64</v>
@@ -6542,13 +6578,13 @@
         <v>5808</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -6557,13 +6593,13 @@
         <v>12176</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -6572,13 +6608,13 @@
         <v>17984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6629,13 @@
         <v>271415</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H20" s="7">
         <v>428</v>
@@ -6608,13 +6644,13 @@
         <v>263446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M20" s="7">
         <v>786</v>
@@ -6623,13 +6659,13 @@
         <v>534861</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,10 +6736,10 @@
         <v>52</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -6712,13 +6748,13 @@
         <v>14776</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -6727,13 +6763,13 @@
         <v>17060</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,10 +6787,10 @@
         <v>54</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="H23" s="7">
         <v>936</v>
@@ -6763,13 +6799,13 @@
         <v>789427</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="M23" s="7">
         <v>1532</v>
@@ -6778,13 +6814,13 @@
         <v>1414897</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,13 +6888,13 @@
         <v>709</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6870,10 +6906,10 @@
         <v>30</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -6885,10 +6921,10 @@
         <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,10 +6939,10 @@
         <v>858719</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>17</v>
@@ -6921,10 +6957,10 @@
         <v>33</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>1815</v>
@@ -6936,10 +6972,10 @@
         <v>92</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,13 +7043,13 @@
         <v>23123</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="H28" s="7">
         <v>123</v>
@@ -7022,13 +7058,13 @@
         <v>64776</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M28" s="7">
         <v>163</v>
@@ -7037,13 +7073,13 @@
         <v>87899</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,13 +7094,13 @@
         <v>3362105</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H29" s="7">
         <v>5244</v>
@@ -7073,28 +7109,28 @@
         <v>3770805</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>8580</v>
       </c>
       <c r="N29" s="7">
-        <v>7132910</v>
+        <v>7132909</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,7 +7172,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P15E_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD847477-5D6F-43AE-B955-A5B875824A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5C04BC2-5620-459C-99A6-F17A528E710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18A0EDF4-DDC2-47F9-96C7-5222C7155DE2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC4EDA16-9951-4ADD-9E6F-9508A46A80FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -305,7 +305,7 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>Población mayor de 65 años con alguna caída en el último año en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población mayor de 65 años con alguna caída en el último año en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -1104,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9286FED2-5311-44EA-AA32-E54C276E2EDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8622CE4-FE17-4456-9C30-5BF03ABA5389}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2516,7 +2516,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -2567,7 +2567,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2635,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E75352-AAFD-4E81-B390-C657F0E826FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B32A70-C7BC-4237-B918-C2F05EC30F30}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4148,7 +4148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C97BE3-C3AA-475D-B347-9690712A8B67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A6AD50-0FEC-4559-9965-C92351215841}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5679,7 +5679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12DA400-A6BE-4DE3-A9A2-0395A2342757}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6595724D-5E2D-4EBB-B333-ADF55DFB7E97}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P15E_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5C04BC2-5620-459C-99A6-F17A528E710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E852E29E-5320-49A2-9AEC-9808967DC06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC4EDA16-9951-4ADD-9E6F-9508A46A80FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C36A57BF-752F-4410-8590-10328707E120}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="206">
   <si>
     <t>Población mayor de 65 años con alguna caída en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -368,328 +368,292 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,53%</t>
+    <t>2,29%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,47%</t>
+    <t>97,71%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>99,92%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>0,48%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
     <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
   </si>
   <si>
     <t>98,98%</t>
@@ -1104,7 +1068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8622CE4-FE17-4456-9C30-5BF03ABA5389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9549E06A-76F8-4009-9FEE-7EA9E76E920D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2516,7 +2480,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -2546,7 +2510,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -2567,7 +2531,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2597,7 +2561,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2635,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B32A70-C7BC-4237-B918-C2F05EC30F30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB7227B-FA35-45F1-B725-BDE4F7A550AD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4148,7 +4112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A6AD50-0FEC-4559-9965-C92351215841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51352F46-23B8-49D3-B89D-597D8F299968}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5679,7 +5643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6595724D-5E2D-4EBB-B333-ADF55DFB7E97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8325FADC-4AA3-4F3A-9699-7A449CCC7FF6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5806,7 +5770,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>109</v>
@@ -5860,7 +5824,7 @@
         <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="H5" s="7">
         <v>517</v>
@@ -5961,10 +5925,10 @@
         <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5976,10 +5940,10 @@
         <v>113</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -5988,13 +5952,13 @@
         <v>15739</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,10 +5976,10 @@
         <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
@@ -6027,10 +5991,10 @@
         <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>1077</v>
@@ -6039,13 +6003,13 @@
         <v>1058125</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6077,13 @@
         <v>5458</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -6128,13 +6092,13 @@
         <v>5100</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -6143,13 +6107,13 @@
         <v>10558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6128,13 @@
         <v>316782</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="H11" s="7">
         <v>526</v>
@@ -6179,13 +6143,13 @@
         <v>368184</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
         <v>877</v>
@@ -6194,10 +6158,10 @@
         <v>684966</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>48</v>
@@ -6268,13 +6232,13 @@
         <v>2180</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -6283,13 +6247,13 @@
         <v>3542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -6298,13 +6262,13 @@
         <v>5722</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6283,13 @@
         <v>320060</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
@@ -6334,13 +6298,13 @@
         <v>425014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
@@ -6349,13 +6313,13 @@
         <v>745074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6387,13 @@
         <v>1663</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6444,7 +6408,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -6453,13 +6417,13 @@
         <v>2318</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,10 +6438,10 @@
         <v>195085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>87</v>
@@ -6492,7 +6456,7 @@
         <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -6504,10 +6468,10 @@
         <v>453942</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>64</v>
@@ -6578,13 +6542,13 @@
         <v>5808</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -6593,13 +6557,13 @@
         <v>12176</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -6608,13 +6572,13 @@
         <v>17984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6593,13 @@
         <v>271415</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>428</v>
@@ -6644,13 +6608,13 @@
         <v>263446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M20" s="7">
         <v>786</v>
@@ -6659,13 +6623,13 @@
         <v>534861</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,10 +6700,10 @@
         <v>52</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -6748,13 +6712,13 @@
         <v>14776</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -6763,13 +6727,13 @@
         <v>17060</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,10 +6751,10 @@
         <v>54</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
         <v>936</v>
@@ -6799,13 +6763,13 @@
         <v>789427</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>1532</v>
@@ -6814,13 +6778,13 @@
         <v>1414897</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6852,13 @@
         <v>709</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6906,10 +6870,10 @@
         <v>30</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -6921,10 +6885,10 @@
         <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,10 +6903,10 @@
         <v>858719</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>17</v>
@@ -6957,10 +6921,10 @@
         <v>33</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="M26" s="7">
         <v>1815</v>
@@ -6972,10 +6936,10 @@
         <v>92</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7007,13 @@
         <v>23123</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="H28" s="7">
         <v>123</v>
@@ -7058,13 +7022,13 @@
         <v>64776</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>163</v>
@@ -7073,13 +7037,13 @@
         <v>87899</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7058,13 @@
         <v>3362105</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>5244</v>
@@ -7109,28 +7073,28 @@
         <v>3770805</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>8580</v>
       </c>
       <c r="N29" s="7">
-        <v>7132909</v>
+        <v>7132910</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7172,7 +7136,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P15E_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E852E29E-5320-49A2-9AEC-9808967DC06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CBEE821-746D-49C2-BEFD-418C76AD4456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C36A57BF-752F-4410-8590-10328707E120}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{83C9A9B0-1F8D-4031-9207-2BE0621CCC71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="233">
   <si>
     <t>Población mayor de 65 años con alguna caída en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -254,7 +254,16 @@
     <t>Población mayor de 65 años con alguna caída en el último año en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -269,39 +278,51 @@
     <t>99,4%</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
     <t>0,15%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
@@ -365,298 +386,358 @@
     <t>Población mayor de 65 años con alguna caída en el último año en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9549E06A-76F8-4009-9FEE-7EA9E76E920D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127483B3-8CCF-4F3A-A49B-59BF02786506}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2480,7 +2561,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -2495,7 +2576,7 @@
         <v>3297</v>
       </c>
       <c r="I29" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>17</v>
@@ -2510,7 +2591,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -2531,7 +2612,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2546,7 +2627,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -2561,7 +2642,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2599,7 +2680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB7227B-FA35-45F1-B725-BDE4F7A550AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37253982-7539-49C7-8A8E-06E81951E297}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2719,12 +2800,14 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>71</v>
@@ -2732,28 +2815,32 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,43 +2849,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D5" s="7">
+        <v>294738</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I5" s="7">
+        <v>287245</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N5" s="7">
+        <v>581983</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,43 +2900,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,7 +2980,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2929,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3021,7 +3120,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3036,7 +3135,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3069,7 +3168,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3084,7 +3183,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3176,7 +3275,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3191,7 +3290,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3206,7 +3305,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,46 +3314,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D14" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I14" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N14" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3266,10 +3365,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3281,10 +3380,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3296,10 +3395,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3331,7 +3430,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3346,7 +3445,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3379,7 +3478,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3394,7 +3493,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3486,7 +3585,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3534,7 +3633,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -3671,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,7 +3818,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -3796,7 +3895,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3811,7 +3910,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3844,7 +3943,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -3859,7 +3958,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -4112,7 +4211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51352F46-23B8-49D3-B89D-597D8F299968}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A8AFDA-CE62-45AC-81C2-F215F234C964}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4129,7 +4228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4257,7 +4356,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4272,7 +4371,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,7 +4404,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4320,7 +4419,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4397,7 +4496,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4412,7 +4511,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4445,7 +4544,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4460,7 +4559,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4567,7 +4666,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4582,7 +4681,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,7 +4714,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4630,7 +4729,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4707,7 +4806,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4737,7 +4836,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,7 +4854,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4785,7 +4884,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4862,7 +4961,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4877,7 +4976,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4892,7 +4991,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,7 +5009,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4925,7 +5024,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4940,7 +5039,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5017,7 +5116,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5032,7 +5131,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5065,7 +5164,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5080,7 +5179,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5172,7 +5271,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5220,7 +5319,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -5342,7 +5441,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5390,7 +5489,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -5643,7 +5742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8325FADC-4AA3-4F3A-9699-7A449CCC7FF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F57813-A58C-48E3-912B-5AF581D70554}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5660,7 +5759,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5764,46 +5863,46 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>2198</v>
+        <v>2319</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>10187</v>
+        <v>10362</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>12385</v>
+        <v>12681</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,46 +5914,46 @@
         <v>327</v>
       </c>
       <c r="D5" s="7">
-        <v>258100</v>
+        <v>309124</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="H5" s="7">
         <v>517</v>
       </c>
       <c r="I5" s="7">
-        <v>261216</v>
+        <v>279273</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M5" s="7">
         <v>844</v>
       </c>
       <c r="N5" s="7">
-        <v>519315</v>
+        <v>588396</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,7 +5965,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -5881,7 +5980,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5896,7 +5995,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5919,46 +6018,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2823</v>
+        <v>2664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>12916</v>
+        <v>11481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>15739</v>
+        <v>14145</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,46 +6069,46 @@
         <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>516474</v>
+        <v>515726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
       </c>
       <c r="I8" s="7">
-        <v>541650</v>
+        <v>503488</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>1077</v>
       </c>
       <c r="N8" s="7">
-        <v>1058125</v>
+        <v>1019214</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,7 +6120,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -6036,7 +6135,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -6051,7 +6150,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -6074,46 +6173,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>5458</v>
+        <v>5169</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>5100</v>
+        <v>4699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>10558</v>
+        <v>9868</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,46 +6224,46 @@
         <v>351</v>
       </c>
       <c r="D11" s="7">
-        <v>316782</v>
+        <v>310881</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>526</v>
       </c>
       <c r="I11" s="7">
-        <v>368184</v>
+        <v>344429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>877</v>
       </c>
       <c r="N11" s="7">
-        <v>684966</v>
+        <v>655310</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6275,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -6191,7 +6290,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6206,7 +6305,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6229,46 +6328,46 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2180</v>
+        <v>2080</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>3542</v>
+        <v>3346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>5722</v>
+        <v>5426</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,46 +6379,46 @@
         <v>288</v>
       </c>
       <c r="D14" s="7">
-        <v>320060</v>
+        <v>310477</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
       </c>
       <c r="I14" s="7">
-        <v>425014</v>
+        <v>472372</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>879</v>
       </c>
       <c r="N14" s="7">
-        <v>745074</v>
+        <v>782848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +6430,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -6346,7 +6445,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6361,7 +6460,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6384,46 +6483,46 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>1663</v>
+        <v>1495</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>654</v>
+        <v>540</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>2318</v>
+        <v>2035</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,28 +6534,28 @@
         <v>276</v>
       </c>
       <c r="D17" s="7">
-        <v>195085</v>
+        <v>177247</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>494</v>
       </c>
       <c r="I17" s="7">
-        <v>258859</v>
+        <v>258239</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -6465,13 +6564,13 @@
         <v>770</v>
       </c>
       <c r="N17" s="7">
-        <v>453942</v>
+        <v>435486</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>64</v>
@@ -6486,7 +6585,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -6501,7 +6600,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6516,7 +6615,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6539,46 +6638,46 @@
         <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>5808</v>
+        <v>5533</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>12176</v>
+        <v>11351</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
       </c>
       <c r="N19" s="7">
-        <v>17984</v>
+        <v>16884</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,46 +6689,46 @@
         <v>358</v>
       </c>
       <c r="D20" s="7">
-        <v>271415</v>
+        <v>264103</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="H20" s="7">
         <v>428</v>
       </c>
       <c r="I20" s="7">
-        <v>263446</v>
+        <v>245705</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M20" s="7">
         <v>786</v>
       </c>
       <c r="N20" s="7">
-        <v>534861</v>
+        <v>509808</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,7 +6740,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6656,7 +6755,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6671,7 +6770,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6694,46 +6793,46 @@
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>2284</v>
+        <v>2174</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
       </c>
       <c r="I22" s="7">
-        <v>14776</v>
+        <v>13323</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
       </c>
       <c r="N22" s="7">
-        <v>17060</v>
+        <v>15497</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6844,13 @@
         <v>596</v>
       </c>
       <c r="D23" s="7">
-        <v>625470</v>
+        <v>622105</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>17</v>
@@ -6760,31 +6859,31 @@
         <v>936</v>
       </c>
       <c r="I23" s="7">
-        <v>789427</v>
+        <v>835942</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="M23" s="7">
         <v>1532</v>
       </c>
       <c r="N23" s="7">
-        <v>1414897</v>
+        <v>1458047</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,7 +6895,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -6811,7 +6910,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -6826,7 +6925,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6849,46 +6948,46 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>709</v>
+        <v>620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>5424</v>
+        <v>4514</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
       </c>
       <c r="N25" s="7">
-        <v>6133</v>
+        <v>5134</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,13 +6999,13 @@
         <v>761</v>
       </c>
       <c r="D26" s="7">
-        <v>858719</v>
+        <v>928100</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>17</v>
@@ -6915,13 +7014,13 @@
         <v>1054</v>
       </c>
       <c r="I26" s="7">
-        <v>863010</v>
+        <v>713217</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>35</v>
@@ -6930,16 +7029,16 @@
         <v>1815</v>
       </c>
       <c r="N26" s="7">
-        <v>1721729</v>
+        <v>1641318</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,7 +7050,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -6966,7 +7065,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -6981,7 +7080,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -7004,46 +7103,46 @@
         <v>40</v>
       </c>
       <c r="D28" s="7">
-        <v>23123</v>
+        <v>22055</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="H28" s="7">
         <v>123</v>
       </c>
       <c r="I28" s="7">
-        <v>64776</v>
+        <v>59616</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="M28" s="7">
         <v>163</v>
       </c>
       <c r="N28" s="7">
-        <v>87899</v>
+        <v>81671</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,46 +7154,46 @@
         <v>3336</v>
       </c>
       <c r="D29" s="7">
-        <v>3362105</v>
+        <v>3437762</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="H29" s="7">
         <v>5244</v>
       </c>
       <c r="I29" s="7">
-        <v>3770805</v>
+        <v>3652664</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="M29" s="7">
         <v>8580</v>
       </c>
       <c r="N29" s="7">
-        <v>7132910</v>
+        <v>7090426</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,7 +7205,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -7121,7 +7220,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -7136,7 +7235,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
